--- a/biology/Botanique/Santalum_austrocaledonicum/Santalum_austrocaledonicum.xlsx
+++ b/biology/Botanique/Santalum_austrocaledonicum/Santalum_austrocaledonicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Santal néocalédonien (Santalum austrocaledonicum) est une espèce de plantes à fleurs de la famille des Santalaceae. C'est un arbre de Nouvelle-Calédonie et du Vanuatu.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre qui atteint une quinzaine de mètres de haut au maximum (mais en moyenne 10 m à l’état adulte).
 Il s’agit d’un arbre hémiparasite, incapable d’absorber par lui-même les nutriments du sol. Ses racines se fixent par des suçoirs sur les racines des plantes environnantes et en prélèvent la sève. Les plantes parasitées ne sont pas spécifiques : sur la photo ci-dessus, il s’agit probablement des cocotiers, mais même des graminées peuvent être parasitées. Ce parasitisme a, dans l’ensemble, peu de conséquences sur la croissance des plantes parasitées.
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture du santal concerne donc à la fois une plante hôte et l’arbre lui-même. Les meilleurs résultats ont été obtenus, en Nouvelle-Calédonie, avec du faux gaïac (Acacia spirorbis) comme plante hôte. En raison de son parasitisme, le santal est peu sensible à la nature du sol (pourvu qu’il trouve une plante à parasiter).
 Le semi est réalisé avec une graminée fournissant le premier hôte parasité au petit plant de santal. Au moment du repiquage, au bout de 6-12 mois, un plant de faux-gaïac est installé à proximité pour fournir un hôte définitif suffisamment dynamique et pérenne pour l'arbre parasite.
@@ -578,9 +594,11 @@
           <t>Exploitation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La culture et l'exploitation du santal est un travail collectif traditionnel chez les mélanésiens. A partir du XIXe siècle, il a également fait l'objet d'un trafic important par les Occidentaux, aboutissant à sa presque totale disparition[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture et l'exploitation du santal est un travail collectif traditionnel chez les mélanésiens. A partir du XIXe siècle, il a également fait l'objet d'un trafic important par les Occidentaux, aboutissant à sa presque totale disparition.
 L’arbre à exploiter est déraciné et non coupé car la partie racinaire comporte elle aussi beaucoup d’huile.
 L'essence est extraite par distillation à l'eau. Les drèches sont récupérées pour être vendues (une deuxième distillation permet d'extraire encore de l'essence).
 Le bois de feu pour l'alambic est généralement le faux-gaïac qui a été planté avec le santal et parasité par lui.
@@ -616,9 +634,11 @@
           <t>Quelques aspects économiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La filière est devenue en quelques années[Combien ?], en Nouvelle-Calédonie, la principale valeur d'exportation pour les produits végétaux, dépassant largement la squash, pourtant très mise en avant : 112,7 millions de Francs pacifiques (F. CFP) en 2008, soit 47,1 % de la valeur des exportations végétales[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La filière est devenue en quelques années[Combien ?], en Nouvelle-Calédonie, la principale valeur d'exportation pour les produits végétaux, dépassant largement la squash, pourtant très mise en avant : 112,7 millions de Francs pacifiques (F. CFP) en 2008, soit 47,1 % de la valeur des exportations végétales.
 			Evolution des exportations d'essence en valeur (Santal et Niaouli)
 			Production de bois et drèches de Santal en Nouvelle-Calédonie
 </t>
